--- a/resources/data-imports/Weapons/censers.xlsx
+++ b/resources/data-imports/Weapons/censers.xlsx
@@ -602,8 +602,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -686,7 +687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -696,6 +697,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -897,8 +902,8 @@
   </sheetPr>
   <dimension ref="A1:BT61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2:AE60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,8 +1139,8 @@
       <c r="I2" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>10</v>
+      <c r="L2" s="3" t="n">
+        <v>9</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
@@ -1155,10 +1160,10 @@
       <c r="AC2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AD2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>5</v>
       </c>
       <c r="AF2" s="2" t="s">
@@ -1241,8 +1246,8 @@
       <c r="I3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>16</v>
+      <c r="L3" s="3" t="n">
+        <v>13</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
@@ -1268,10 +1273,10 @@
       <c r="AC3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="4" t="n">
         <v>7</v>
       </c>
       <c r="AF3" s="2" t="s">
@@ -1354,8 +1359,8 @@
       <c r="I4" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>27</v>
+      <c r="L4" s="3" t="n">
+        <v>19</v>
       </c>
       <c r="O4" s="2" t="n">
         <v>0</v>
@@ -1381,10 +1386,10 @@
       <c r="AC4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="4" t="n">
         <v>10</v>
       </c>
       <c r="AF4" s="2" t="s">
@@ -1467,8 +1472,8 @@
       <c r="I5" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="L5" s="2" t="n">
-        <v>45</v>
+      <c r="L5" s="3" t="n">
+        <v>28</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>0</v>
@@ -1494,10 +1499,10 @@
       <c r="AC5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD5" s="3" t="n">
+      <c r="AD5" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="AE5" s="3" t="n">
+      <c r="AE5" s="4" t="n">
         <v>12</v>
       </c>
       <c r="AF5" s="2" t="s">
@@ -1580,8 +1585,8 @@
       <c r="I6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>73</v>
+      <c r="L6" s="3" t="n">
+        <v>40</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>0</v>
@@ -1607,10 +1612,10 @@
       <c r="AC6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD6" s="3" t="n">
+      <c r="AD6" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="AE6" s="3" t="n">
+      <c r="AE6" s="4" t="n">
         <v>15</v>
       </c>
       <c r="AF6" s="2" t="s">
@@ -1693,8 +1698,8 @@
       <c r="I7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>121</v>
+      <c r="L7" s="3" t="n">
+        <v>59</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0</v>
@@ -1717,10 +1722,10 @@
       <c r="AB7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD7" s="3" t="n">
+      <c r="AD7" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AE7" s="4" t="n">
         <v>16</v>
       </c>
       <c r="AF7" s="2" t="s">
@@ -1803,8 +1808,8 @@
       <c r="I8" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>199</v>
+      <c r="L8" s="3" t="n">
+        <v>87</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>0</v>
@@ -1827,10 +1832,10 @@
       <c r="AB8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD8" s="3" t="n">
+      <c r="AD8" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="AE8" s="3" t="n">
+      <c r="AE8" s="4" t="n">
         <v>18</v>
       </c>
       <c r="AF8" s="2" t="s">
@@ -1913,8 +1918,8 @@
       <c r="I9" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <v>328</v>
+      <c r="L9" s="3" t="n">
+        <v>127</v>
       </c>
       <c r="O9" s="2" t="n">
         <v>0</v>
@@ -1937,10 +1942,10 @@
       <c r="AB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="4" t="n">
         <v>20</v>
       </c>
       <c r="AF9" s="2" t="s">
@@ -2023,8 +2028,8 @@
       <c r="I10" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>539</v>
+      <c r="L10" s="3" t="n">
+        <v>186</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>0</v>
@@ -2047,10 +2052,10 @@
       <c r="AB10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AD10" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="AE10" s="3" t="n">
+      <c r="AE10" s="4" t="n">
         <v>23</v>
       </c>
       <c r="AF10" s="2" t="s">
@@ -2133,8 +2138,8 @@
       <c r="I11" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>888</v>
+      <c r="L11" s="3" t="n">
+        <v>273</v>
       </c>
       <c r="O11" s="2" t="n">
         <v>0</v>
@@ -2157,10 +2162,10 @@
       <c r="AB11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="AE11" s="3" t="n">
+      <c r="AE11" s="4" t="n">
         <v>25</v>
       </c>
       <c r="AF11" s="2" t="s">
@@ -2243,8 +2248,8 @@
       <c r="I12" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <v>1462</v>
+      <c r="L12" s="3" t="n">
+        <v>399</v>
       </c>
       <c r="O12" s="2" t="n">
         <v>0</v>
@@ -2267,10 +2272,10 @@
       <c r="AB12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD12" s="3" t="n">
+      <c r="AD12" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="AE12" s="3" t="n">
+      <c r="AE12" s="4" t="n">
         <v>27</v>
       </c>
       <c r="AF12" s="2" t="s">
@@ -2353,8 +2358,8 @@
       <c r="I13" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>2406</v>
+      <c r="L13" s="3" t="n">
+        <v>585</v>
       </c>
       <c r="O13" s="2" t="n">
         <v>0</v>
@@ -2377,10 +2382,10 @@
       <c r="AB13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD13" s="3" t="n">
+      <c r="AD13" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="AE13" s="3" t="n">
+      <c r="AE13" s="4" t="n">
         <v>29</v>
       </c>
       <c r="AF13" s="2" t="s">
@@ -2463,8 +2468,8 @@
       <c r="I14" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <v>3961</v>
+      <c r="L14" s="3" t="n">
+        <v>856</v>
       </c>
       <c r="O14" s="2" t="n">
         <v>0</v>
@@ -2487,10 +2492,10 @@
       <c r="AB14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD14" s="3" t="n">
+      <c r="AD14" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="AE14" s="3" t="n">
+      <c r="AE14" s="4" t="n">
         <v>31</v>
       </c>
       <c r="AF14" s="2" t="s">
@@ -2573,8 +2578,8 @@
       <c r="I15" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="L15" s="2" t="n">
-        <v>6521</v>
+      <c r="L15" s="3" t="n">
+        <v>1254</v>
       </c>
       <c r="O15" s="2" t="n">
         <v>0</v>
@@ -2597,10 +2602,10 @@
       <c r="AB15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD15" s="3" t="n">
+      <c r="AD15" s="4" t="n">
         <v>31</v>
       </c>
-      <c r="AE15" s="3" t="n">
+      <c r="AE15" s="4" t="n">
         <v>33</v>
       </c>
       <c r="AF15" s="2" t="s">
@@ -2683,8 +2688,8 @@
       <c r="I16" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="L16" s="2" t="n">
-        <v>10736</v>
+      <c r="L16" s="3" t="n">
+        <v>1837</v>
       </c>
       <c r="O16" s="2" t="n">
         <v>0</v>
@@ -2707,10 +2712,10 @@
       <c r="AB16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="4" t="n">
         <v>33</v>
       </c>
-      <c r="AE16" s="3" t="n">
+      <c r="AE16" s="4" t="n">
         <v>35</v>
       </c>
       <c r="AF16" s="2" t="s">
@@ -2793,8 +2798,8 @@
       <c r="I17" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="L17" s="2" t="n">
-        <v>17673</v>
+      <c r="L17" s="3" t="n">
+        <v>2691</v>
       </c>
       <c r="O17" s="2" t="n">
         <v>0</v>
@@ -2817,10 +2822,10 @@
       <c r="AB17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD17" s="3" t="n">
+      <c r="AD17" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="AE17" s="3" t="n">
+      <c r="AE17" s="4" t="n">
         <v>37</v>
       </c>
       <c r="AF17" s="2" t="s">
@@ -2903,8 +2908,8 @@
       <c r="I18" s="2" t="n">
         <v>280</v>
       </c>
-      <c r="L18" s="2" t="n">
-        <v>29094</v>
+      <c r="L18" s="3" t="n">
+        <v>3941</v>
       </c>
       <c r="O18" s="2" t="n">
         <v>0</v>
@@ -2921,10 +2926,10 @@
       <c r="AB18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD18" s="3" t="n">
+      <c r="AD18" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="AE18" s="3" t="n">
+      <c r="AE18" s="4" t="n">
         <v>40</v>
       </c>
       <c r="AF18" s="2" t="s">
@@ -3007,8 +3012,8 @@
       <c r="I19" s="2" t="n">
         <v>297</v>
       </c>
-      <c r="L19" s="2" t="n">
-        <v>47896</v>
+      <c r="L19" s="3" t="n">
+        <v>5772</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>0</v>
@@ -3031,10 +3036,10 @@
       <c r="AB19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="AE19" s="3" t="n">
+      <c r="AE19" s="4" t="n">
         <v>41</v>
       </c>
       <c r="AF19" s="2" t="s">
@@ -3117,8 +3122,8 @@
       <c r="I20" s="2" t="n">
         <v>314</v>
       </c>
-      <c r="L20" s="2" t="n">
-        <v>78847</v>
+      <c r="L20" s="3" t="n">
+        <v>8454</v>
       </c>
       <c r="O20" s="2" t="n">
         <v>0</v>
@@ -3141,10 +3146,10 @@
       <c r="AB20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD20" s="3" t="n">
+      <c r="AD20" s="4" t="n">
         <v>41</v>
       </c>
-      <c r="AE20" s="3" t="n">
+      <c r="AE20" s="4" t="n">
         <v>44</v>
       </c>
       <c r="AF20" s="2" t="s">
@@ -3227,8 +3232,8 @@
       <c r="I21" s="2" t="n">
         <v>332</v>
       </c>
-      <c r="L21" s="2" t="n">
-        <v>129799</v>
+      <c r="L21" s="3" t="n">
+        <v>12382</v>
       </c>
       <c r="O21" s="2" t="n">
         <v>0</v>
@@ -3251,10 +3256,10 @@
       <c r="AB21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD21" s="3" t="n">
+      <c r="AD21" s="4" t="n">
         <v>44</v>
       </c>
-      <c r="AE21" s="3" t="n">
+      <c r="AE21" s="4" t="n">
         <v>46</v>
       </c>
       <c r="AF21" s="2" t="s">
@@ -3337,8 +3342,8 @@
       <c r="I22" s="2" t="n">
         <v>349</v>
       </c>
-      <c r="L22" s="2" t="n">
-        <v>213678</v>
+      <c r="L22" s="3" t="n">
+        <v>18135</v>
       </c>
       <c r="O22" s="2" t="n">
         <v>0</v>
@@ -3361,10 +3366,10 @@
       <c r="AB22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD22" s="3" t="n">
+      <c r="AD22" s="4" t="n">
         <v>46</v>
       </c>
-      <c r="AE22" s="3" t="n">
+      <c r="AE22" s="4" t="n">
         <v>48</v>
       </c>
       <c r="AF22" s="2" t="s">
@@ -3447,8 +3452,8 @@
       <c r="I23" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="L23" s="2" t="n">
-        <v>351761</v>
+      <c r="L23" s="3" t="n">
+        <v>26561</v>
       </c>
       <c r="O23" s="2" t="n">
         <v>0</v>
@@ -3471,10 +3476,10 @@
       <c r="AB23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD23" s="3" t="n">
+      <c r="AD23" s="4" t="n">
         <v>48</v>
       </c>
-      <c r="AE23" s="3" t="n">
+      <c r="AE23" s="4" t="n">
         <v>50</v>
       </c>
       <c r="AF23" s="2" t="s">
@@ -3557,8 +3562,8 @@
       <c r="I24" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="L24" s="2" t="n">
-        <v>579076</v>
+      <c r="L24" s="3" t="n">
+        <v>38902</v>
       </c>
       <c r="O24" s="2" t="n">
         <v>0</v>
@@ -3581,10 +3586,10 @@
       <c r="AB24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD24" s="3" t="n">
+      <c r="AD24" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="AE24" s="3" t="n">
+      <c r="AE24" s="4" t="n">
         <v>52</v>
       </c>
       <c r="AF24" s="2" t="s">
@@ -3667,8 +3672,8 @@
       <c r="I25" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="L25" s="2" t="n">
-        <v>953286</v>
+      <c r="L25" s="3" t="n">
+        <v>56977</v>
       </c>
       <c r="O25" s="2" t="n">
         <v>0</v>
@@ -3691,10 +3696,10 @@
       <c r="AB25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD25" s="3" t="n">
+      <c r="AD25" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="AE25" s="3" t="n">
+      <c r="AE25" s="4" t="n">
         <v>56</v>
       </c>
       <c r="AF25" s="2" t="s">
@@ -3777,8 +3782,8 @@
       <c r="I26" s="2" t="n">
         <v>417</v>
       </c>
-      <c r="L26" s="2" t="n">
-        <v>1569320</v>
+      <c r="L26" s="3" t="n">
+        <v>83451</v>
       </c>
       <c r="O26" s="2" t="n">
         <v>0</v>
@@ -3801,10 +3806,10 @@
       <c r="AB26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD26" s="3" t="n">
+      <c r="AD26" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="AE26" s="3" t="n">
+      <c r="AE26" s="4" t="n">
         <v>63</v>
       </c>
       <c r="AF26" s="2" t="s">
@@ -3887,8 +3892,8 @@
       <c r="I27" s="2" t="n">
         <v>434</v>
       </c>
-      <c r="L27" s="2" t="n">
-        <v>2583446</v>
+      <c r="L27" s="3" t="n">
+        <v>122226</v>
       </c>
       <c r="O27" s="2" t="n">
         <v>0</v>
@@ -3911,10 +3916,10 @@
       <c r="AB27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD27" s="3" t="n">
+      <c r="AD27" s="4" t="n">
         <v>63</v>
       </c>
-      <c r="AE27" s="3" t="n">
+      <c r="AE27" s="4" t="n">
         <v>69</v>
       </c>
       <c r="AF27" s="2" t="s">
@@ -3997,8 +4002,8 @@
       <c r="I28" s="2" t="n">
         <v>452</v>
       </c>
-      <c r="L28" s="2" t="n">
-        <v>4252921</v>
+      <c r="L28" s="3" t="n">
+        <v>179017</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>0</v>
@@ -4021,10 +4026,10 @@
       <c r="AB28" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD28" s="3" t="n">
+      <c r="AD28" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="AE28" s="3" t="n">
+      <c r="AE28" s="4" t="n">
         <v>76</v>
       </c>
       <c r="AF28" s="2" t="s">
@@ -4107,8 +4112,8 @@
       <c r="I29" s="2" t="n">
         <v>469</v>
       </c>
-      <c r="L29" s="2" t="n">
-        <v>7001245</v>
+      <c r="L29" s="3" t="n">
+        <v>262195</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>0</v>
@@ -4131,10 +4136,10 @@
       <c r="AB29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD29" s="3" t="n">
+      <c r="AD29" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="AE29" s="3" t="n">
+      <c r="AE29" s="4" t="n">
         <v>82</v>
       </c>
       <c r="AF29" s="2" t="s">
@@ -4217,8 +4222,8 @@
       <c r="I30" s="2" t="n">
         <v>486</v>
       </c>
-      <c r="L30" s="2" t="n">
-        <v>11525593</v>
+      <c r="L30" s="3" t="n">
+        <v>384022</v>
       </c>
       <c r="O30" s="2" t="n">
         <v>0</v>
@@ -4241,10 +4246,10 @@
       <c r="AB30" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD30" s="3" t="n">
+      <c r="AD30" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="AE30" s="3" t="n">
+      <c r="AE30" s="4" t="n">
         <v>88</v>
       </c>
       <c r="AF30" s="2" t="s">
@@ -4327,8 +4332,8 @@
       <c r="I31" s="2" t="n">
         <v>503</v>
       </c>
-      <c r="L31" s="2" t="n">
-        <v>18973666</v>
+      <c r="L31" s="3" t="n">
+        <v>562454</v>
       </c>
       <c r="O31" s="2" t="n">
         <v>0</v>
@@ -4351,10 +4356,10 @@
       <c r="AB31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD31" s="3" t="n">
+      <c r="AD31" s="4" t="n">
         <v>88</v>
       </c>
-      <c r="AE31" s="3" t="n">
+      <c r="AE31" s="4" t="n">
         <v>96</v>
       </c>
       <c r="AF31" s="2" t="s">
@@ -4437,8 +4442,8 @@
       <c r="I32" s="2" t="n">
         <v>520</v>
       </c>
-      <c r="L32" s="2" t="n">
-        <v>31234836</v>
+      <c r="L32" s="3" t="n">
+        <v>823793</v>
       </c>
       <c r="O32" s="2" t="n">
         <v>0</v>
@@ -4461,10 +4466,10 @@
       <c r="AB32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD32" s="3" t="n">
+      <c r="AD32" s="4" t="n">
         <v>96</v>
       </c>
-      <c r="AE32" s="3" t="n">
+      <c r="AE32" s="4" t="n">
         <v>104</v>
       </c>
       <c r="AF32" s="2" t="s">
@@ -4547,8 +4552,8 @@
       <c r="I33" s="2" t="n">
         <v>537</v>
       </c>
-      <c r="L33" s="2" t="n">
-        <v>51419423</v>
+      <c r="L33" s="3" t="n">
+        <v>1206561</v>
       </c>
       <c r="O33" s="2" t="n">
         <v>0</v>
@@ -4565,10 +4570,10 @@
       <c r="AB33" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD33" s="3" t="n">
+      <c r="AD33" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="AE33" s="3" t="n">
+      <c r="AE33" s="4" t="n">
         <v>110</v>
       </c>
       <c r="AF33" s="2" t="s">
@@ -4654,8 +4659,8 @@
       <c r="I34" s="2" t="n">
         <v>554</v>
       </c>
-      <c r="L34" s="2" t="n">
-        <v>84647702</v>
+      <c r="L34" s="3" t="n">
+        <v>1767179</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>0</v>
@@ -4684,10 +4689,10 @@
       <c r="AB34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD34" s="3" t="n">
+      <c r="AD34" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="AE34" s="3" t="n">
+      <c r="AE34" s="4" t="n">
         <v>116</v>
       </c>
       <c r="AF34" s="2" t="s">
@@ -4773,8 +4778,8 @@
       <c r="I35" s="2" t="n">
         <v>572</v>
       </c>
-      <c r="L35" s="2" t="n">
-        <v>139348772</v>
+      <c r="L35" s="3" t="n">
+        <v>2588282</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>0</v>
@@ -4803,10 +4808,10 @@
       <c r="AB35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD35" s="3" t="n">
+      <c r="AD35" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="AE35" s="3" t="n">
+      <c r="AE35" s="4" t="n">
         <v>123</v>
       </c>
       <c r="AF35" s="2" t="s">
@@ -4892,8 +4897,8 @@
       <c r="I36" s="2" t="n">
         <v>589</v>
       </c>
-      <c r="L36" s="2" t="n">
-        <v>229398789</v>
+      <c r="L36" s="3" t="n">
+        <v>3790904</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>0</v>
@@ -4922,10 +4927,10 @@
       <c r="AB36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD36" s="3" t="n">
+      <c r="AD36" s="4" t="n">
         <v>123</v>
       </c>
-      <c r="AE36" s="3" t="n">
+      <c r="AE36" s="4" t="n">
         <v>132</v>
       </c>
       <c r="AF36" s="2" t="s">
@@ -5011,8 +5016,8 @@
       <c r="I37" s="2" t="n">
         <v>606</v>
       </c>
-      <c r="L37" s="2" t="n">
-        <v>377640962</v>
+      <c r="L37" s="3" t="n">
+        <v>5552314</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>0</v>
@@ -5041,10 +5046,10 @@
       <c r="AB37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD37" s="3" t="n">
+      <c r="AD37" s="4" t="n">
         <v>132</v>
       </c>
-      <c r="AE37" s="3" t="n">
+      <c r="AE37" s="4" t="n">
         <v>141</v>
       </c>
       <c r="AF37" s="2" t="s">
@@ -5130,8 +5135,8 @@
       <c r="I38" s="2" t="n">
         <v>623</v>
       </c>
-      <c r="L38" s="2" t="n">
-        <v>621680248</v>
+      <c r="L38" s="3" t="n">
+        <v>8132146</v>
       </c>
       <c r="O38" s="2" t="n">
         <v>0</v>
@@ -5148,10 +5153,10 @@
       <c r="AB38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD38" s="3" t="n">
+      <c r="AD38" s="4" t="n">
         <v>141</v>
       </c>
-      <c r="AE38" s="3" t="n">
+      <c r="AE38" s="4" t="n">
         <v>149</v>
       </c>
       <c r="AF38" s="2" t="s">
@@ -5237,8 +5242,8 @@
       <c r="I39" s="2" t="n">
         <v>640</v>
       </c>
-      <c r="L39" s="2" t="n">
-        <v>1023422695</v>
+      <c r="L39" s="3" t="n">
+        <v>11910675</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>0</v>
@@ -5267,10 +5272,10 @@
       <c r="AB39" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD39" s="3" t="n">
+      <c r="AD39" s="4" t="n">
         <v>149</v>
       </c>
-      <c r="AE39" s="3" t="n">
+      <c r="AE39" s="4" t="n">
         <v>157</v>
       </c>
       <c r="AF39" s="2" t="s">
@@ -5356,8 +5361,8 @@
       <c r="I40" s="2" t="n">
         <v>657</v>
       </c>
-      <c r="L40" s="2" t="n">
-        <v>1684779299</v>
+      <c r="L40" s="3" t="n">
+        <v>17444863</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>0</v>
@@ -5386,10 +5391,10 @@
       <c r="AB40" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD40" s="3" t="n">
+      <c r="AD40" s="4" t="n">
         <v>157</v>
       </c>
-      <c r="AE40" s="3" t="n">
+      <c r="AE40" s="4" t="n">
         <v>165</v>
       </c>
       <c r="AF40" s="2" t="s">
@@ -5475,8 +5480,8 @@
       <c r="I41" s="2" t="n">
         <v>674</v>
       </c>
-      <c r="L41" s="2" t="n">
-        <v>2000000000</v>
+      <c r="L41" s="3" t="n">
+        <v>25550461</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>0</v>
@@ -5505,10 +5510,10 @@
       <c r="AB41" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD41" s="3" t="n">
+      <c r="AD41" s="4" t="n">
         <v>165</v>
       </c>
-      <c r="AE41" s="3" t="n">
+      <c r="AE41" s="4" t="n">
         <v>173</v>
       </c>
       <c r="AF41" s="2" t="s">
@@ -5594,8 +5599,8 @@
       <c r="I42" s="2" t="n">
         <v>692</v>
       </c>
-      <c r="L42" s="2" t="n">
-        <v>4565821891</v>
+      <c r="L42" s="3" t="n">
+        <v>37422253</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>0</v>
@@ -5612,10 +5617,10 @@
       <c r="AB42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD42" s="3" t="n">
+      <c r="AD42" s="4" t="n">
         <v>173</v>
       </c>
-      <c r="AE42" s="3" t="n">
+      <c r="AE42" s="4" t="n">
         <v>181</v>
       </c>
       <c r="AF42" s="2" t="s">
@@ -5701,8 +5706,8 @@
       <c r="I43" s="2" t="n">
         <v>709</v>
       </c>
-      <c r="L43" s="2" t="n">
-        <v>7516349053</v>
+      <c r="L43" s="3" t="n">
+        <v>54810166</v>
       </c>
       <c r="O43" s="2" t="n">
         <v>0</v>
@@ -5719,10 +5724,10 @@
       <c r="AB43" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD43" s="3" t="n">
+      <c r="AD43" s="4" t="n">
         <v>181</v>
       </c>
-      <c r="AE43" s="3" t="n">
+      <c r="AE43" s="4" t="n">
         <v>189</v>
       </c>
       <c r="AF43" s="2" t="s">
@@ -5808,8 +5813,8 @@
       <c r="I44" s="2" t="n">
         <v>726</v>
       </c>
-      <c r="L44" s="2" t="n">
-        <v>12373567002</v>
+      <c r="L44" s="3" t="n">
+        <v>80277216</v>
       </c>
       <c r="O44" s="2" t="n">
         <v>0</v>
@@ -5826,10 +5831,10 @@
       <c r="AB44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD44" s="3" t="n">
+      <c r="AD44" s="4" t="n">
         <v>189</v>
       </c>
-      <c r="AE44" s="3" t="n">
+      <c r="AE44" s="4" t="n">
         <v>195</v>
       </c>
       <c r="AF44" s="2" t="s">
@@ -5915,8 +5920,8 @@
       <c r="I45" s="2" t="n">
         <v>743</v>
       </c>
-      <c r="L45" s="2" t="n">
-        <v>20369618184</v>
+      <c r="L45" s="3" t="n">
+        <v>117577302</v>
       </c>
       <c r="O45" s="2" t="n">
         <v>0</v>
@@ -5933,10 +5938,10 @@
       <c r="AB45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD45" s="3" t="n">
+      <c r="AD45" s="4" t="n">
         <v>195</v>
       </c>
-      <c r="AE45" s="3" t="n">
+      <c r="AE45" s="4" t="n">
         <v>201</v>
       </c>
       <c r="AF45" s="2" t="s">
@@ -6022,8 +6027,8 @@
       <c r="I46" s="2" t="n">
         <v>760</v>
       </c>
-      <c r="L46" s="2" t="n">
-        <v>33532880608</v>
+      <c r="L46" s="3" t="n">
+        <v>172208537</v>
       </c>
       <c r="O46" s="2" t="n">
         <v>0</v>
@@ -6040,10 +6045,10 @@
       <c r="AB46" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD46" s="3" t="n">
+      <c r="AD46" s="4" t="n">
         <v>201</v>
       </c>
-      <c r="AE46" s="3" t="n">
+      <c r="AE46" s="4" t="n">
         <v>209</v>
       </c>
       <c r="AF46" s="2" t="s">
@@ -6129,8 +6134,8 @@
       <c r="I47" s="2" t="n">
         <v>777</v>
       </c>
-      <c r="L47" s="2" t="n">
-        <v>55202511489</v>
+      <c r="L47" s="3" t="n">
+        <v>252223684</v>
       </c>
       <c r="O47" s="2" t="n">
         <v>0</v>
@@ -6147,10 +6152,10 @@
       <c r="AB47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD47" s="3" t="n">
+      <c r="AD47" s="4" t="n">
         <v>209</v>
       </c>
-      <c r="AE47" s="3" t="n">
+      <c r="AE47" s="4" t="n">
         <v>222</v>
       </c>
       <c r="AF47" s="2" t="s">
@@ -6236,8 +6241,8 @@
       <c r="I48" s="2" t="n">
         <v>794</v>
       </c>
-      <c r="L48" s="2" t="n">
-        <v>90875499493</v>
+      <c r="L48" s="3" t="n">
+        <v>369417149</v>
       </c>
       <c r="O48" s="2" t="n">
         <v>0</v>
@@ -6254,10 +6259,10 @@
       <c r="AB48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD48" s="3" t="n">
+      <c r="AD48" s="4" t="n">
         <v>222</v>
       </c>
-      <c r="AE48" s="3" t="n">
+      <c r="AE48" s="4" t="n">
         <v>236</v>
       </c>
       <c r="AF48" s="2" t="s">
@@ -6343,8 +6348,8 @@
       <c r="I49" s="2" t="n">
         <v>811</v>
       </c>
-      <c r="L49" s="2" t="n">
-        <v>149601099396</v>
+      <c r="L49" s="3" t="n">
+        <v>541063502</v>
       </c>
       <c r="O49" s="2" t="n">
         <v>0</v>
@@ -6361,10 +6366,10 @@
       <c r="AB49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD49" s="3" t="n">
+      <c r="AD49" s="4" t="n">
         <v>236</v>
       </c>
-      <c r="AE49" s="3" t="n">
+      <c r="AE49" s="4" t="n">
         <v>250</v>
       </c>
       <c r="AF49" s="2" t="s">
@@ -6450,8 +6455,8 @@
       <c r="I50" s="2" t="n">
         <v>829</v>
       </c>
-      <c r="L50" s="2" t="n">
-        <v>246276378840</v>
+      <c r="L50" s="3" t="n">
+        <v>792463789</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>0</v>
@@ -6480,10 +6485,10 @@
       <c r="AB50" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD50" s="3" t="n">
+      <c r="AD50" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="AE50" s="3" t="n">
+      <c r="AE50" s="4" t="n">
         <v>265</v>
       </c>
       <c r="AF50" s="2" t="s">
@@ -6569,8 +6574,8 @@
       <c r="I51" s="2" t="n">
         <v>846</v>
       </c>
-      <c r="L51" s="2" t="n">
-        <v>405425194197</v>
+      <c r="L51" s="3" t="n">
+        <v>1160674956</v>
       </c>
       <c r="O51" s="2" t="n">
         <v>0</v>
@@ -6587,10 +6592,10 @@
       <c r="AB51" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD51" s="3" t="n">
+      <c r="AD51" s="4" t="n">
         <v>265</v>
       </c>
-      <c r="AE51" s="3" t="n">
+      <c r="AE51" s="4" t="n">
         <v>278</v>
       </c>
       <c r="AF51" s="2" t="s">
@@ -6676,8 +6681,8 @@
       <c r="I52" s="2" t="n">
         <v>863</v>
       </c>
-      <c r="L52" s="2" t="n">
-        <v>667419217644</v>
+      <c r="L52" s="3" t="n">
+        <v>1699972128</v>
       </c>
       <c r="O52" s="2" t="n">
         <v>0</v>
@@ -6694,10 +6699,10 @@
       <c r="AB52" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD52" s="3" t="n">
+      <c r="AD52" s="4" t="n">
         <v>278</v>
       </c>
-      <c r="AE52" s="3" t="n">
+      <c r="AE52" s="4" t="n">
         <v>288</v>
       </c>
       <c r="AF52" s="2" t="s">
@@ -6783,8 +6788,8 @@
       <c r="I53" s="2" t="n">
         <v>880</v>
       </c>
-      <c r="L53" s="2" t="n">
-        <v>1098719118734</v>
+      <c r="L53" s="3" t="n">
+        <v>2000000000</v>
       </c>
       <c r="O53" s="2" t="n">
         <v>0</v>
@@ -6801,10 +6806,10 @@
       <c r="AB53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD53" s="3" t="n">
+      <c r="AD53" s="4" t="n">
         <v>288</v>
       </c>
-      <c r="AE53" s="3" t="n">
+      <c r="AE53" s="4" t="n">
         <v>305</v>
       </c>
       <c r="AF53" s="2" t="s">
@@ -6890,8 +6895,8 @@
       <c r="I54" s="2" t="n">
         <v>897</v>
       </c>
-      <c r="L54" s="2" t="n">
-        <v>1808733806216</v>
+      <c r="L54" s="3" t="n">
+        <v>3646734750</v>
       </c>
       <c r="O54" s="2" t="n">
         <v>0</v>
@@ -6908,10 +6913,10 @@
       <c r="AB54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD54" s="3" t="n">
+      <c r="AD54" s="4" t="n">
         <v>305</v>
       </c>
-      <c r="AE54" s="3" t="n">
+      <c r="AE54" s="4" t="n">
         <v>317</v>
       </c>
       <c r="AF54" s="2" t="s">
@@ -6997,8 +7002,8 @@
       <c r="I55" s="2" t="n">
         <v>914</v>
       </c>
-      <c r="L55" s="2" t="n">
-        <v>2977574455534</v>
+      <c r="L55" s="3" t="n">
+        <v>5341157231</v>
       </c>
       <c r="O55" s="2" t="n">
         <v>0</v>
@@ -7015,10 +7020,10 @@
       <c r="AB55" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD55" s="3" t="n">
+      <c r="AD55" s="4" t="n">
         <v>317</v>
       </c>
-      <c r="AE55" s="3" t="n">
+      <c r="AE55" s="4" t="n">
         <v>330</v>
       </c>
       <c r="AF55" s="2" t="s">
@@ -7104,8 +7109,8 @@
       <c r="I56" s="2" t="n">
         <v>931</v>
       </c>
-      <c r="L56" s="2" t="n">
-        <v>4901743754542</v>
+      <c r="L56" s="3" t="n">
+        <v>7822877869</v>
       </c>
       <c r="O56" s="2" t="n">
         <v>0</v>
@@ -7122,10 +7127,10 @@
       <c r="AB56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD56" s="3" t="n">
+      <c r="AD56" s="4" t="n">
         <v>330</v>
       </c>
-      <c r="AE56" s="3" t="n">
+      <c r="AE56" s="4" t="n">
         <v>344</v>
       </c>
       <c r="AF56" s="2" t="s">
@@ -7211,8 +7216,8 @@
       <c r="I57" s="2" t="n">
         <v>949</v>
       </c>
-      <c r="L57" s="2" t="n">
-        <v>8069350470997</v>
+      <c r="L57" s="3" t="n">
+        <v>11457707664</v>
       </c>
       <c r="O57" s="2" t="n">
         <v>0</v>
@@ -7229,10 +7234,10 @@
       <c r="AB57" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD57" s="3" t="n">
+      <c r="AD57" s="4" t="n">
         <v>344</v>
       </c>
-      <c r="AE57" s="3" t="n">
+      <c r="AE57" s="4" t="n">
         <v>360</v>
       </c>
       <c r="AF57" s="2" t="s">
@@ -7318,8 +7323,8 @@
       <c r="I58" s="2" t="n">
         <v>966</v>
       </c>
-      <c r="L58" s="2" t="n">
-        <v>13283929206508</v>
+      <c r="L58" s="3" t="n">
+        <v>16781428411</v>
       </c>
       <c r="O58" s="2" t="n">
         <v>0</v>
@@ -7336,10 +7341,10 @@
       <c r="AB58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD58" s="3" t="n">
+      <c r="AD58" s="4" t="n">
         <v>360</v>
       </c>
-      <c r="AE58" s="3" t="n">
+      <c r="AE58" s="4" t="n">
         <v>375</v>
       </c>
       <c r="AF58" s="2" t="s">
@@ -7425,8 +7430,8 @@
       <c r="I59" s="2" t="n">
         <v>983</v>
       </c>
-      <c r="L59" s="2" t="n">
-        <v>21868274999055</v>
+      <c r="L59" s="3" t="n">
+        <v>24578768089</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>0</v>
@@ -7449,10 +7454,10 @@
       <c r="AB59" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD59" s="3" t="n">
+      <c r="AD59" s="4" t="n">
         <v>375</v>
       </c>
-      <c r="AE59" s="3" t="n">
+      <c r="AE59" s="4" t="n">
         <v>389</v>
       </c>
       <c r="AF59" s="2" t="s">
@@ -7538,8 +7543,8 @@
       <c r="I60" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="L60" s="2" t="n">
-        <v>36000000000000</v>
+      <c r="L60" s="3" t="n">
+        <v>35999071473</v>
       </c>
       <c r="M60" s="2" t="n">
         <v>0</v>
@@ -7562,10 +7567,10 @@
       <c r="AB60" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AD60" s="3" t="n">
+      <c r="AD60" s="4" t="n">
         <v>389</v>
       </c>
-      <c r="AE60" s="3" t="n">
+      <c r="AE60" s="4" t="n">
         <v>401</v>
       </c>
       <c r="AF60" s="2" t="s">
